--- a/data/long_dif/P18_6-Urba-long_dif.xlsx
+++ b/data/long_dif/P18_6-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34,18%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,32%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,61; 30,17</t>
+          <t>18,26; 28,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,15; 34,82</t>
+          <t>25,35; 35,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,95; 33,92</t>
+          <t>25,32; 34,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,18; 28,4</t>
+          <t>24,91; 36,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,74; 42,88</t>
+          <t>20,08; 27,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,24; 32,59</t>
+          <t>33,9; 42,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,39</t>
+          <t>25,58; 33,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,66; 37,48</t>
+          <t>25,54; 34,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,18; 31,98</t>
+          <t>20,25; 26,18</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30,9; 37,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,87; 32,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26,8; 34,35</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>48,6%</t>
+          <t>48,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>44,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46,11%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41,94%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,76; 54,12</t>
+          <t>42,92; 53,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,01; 51,64</t>
+          <t>39,37; 51,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,36; 51,31</t>
+          <t>39,33; 50,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,37; 43,84</t>
+          <t>35,92; 51,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,45; 46,57</t>
+          <t>36,5; 44,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,03; 51,68</t>
+          <t>36,22; 45,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,38; 47,4</t>
+          <t>42,83; 50,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,35; 47,06</t>
+          <t>37,06; 46,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,79; 50,73</t>
+          <t>41,25; 48,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39,0; 46,22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42,77; 49,24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37,91; 46,86</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>32,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 33,03</t>
+          <t>24,24; 33,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,27; 31,53</t>
+          <t>20,2; 31,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,53; 30,99</t>
+          <t>20,66; 32,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,12; 40,84</t>
+          <t>21,23; 32,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 24,83</t>
+          <t>32,01; 39,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,74; 27,5</t>
+          <t>17,94; 25,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,3; 35,48</t>
+          <t>21,21; 28,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,53; 25,89</t>
+          <t>24,36; 33,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,2; 27,48</t>
+          <t>29,4; 35,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,18; 26,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21,85; 27,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 31,22</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,06; 24,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,07; 36,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,61; 34,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,57; 29,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,07; 41,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,71; 32,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,39; 25,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,4; 37,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,62; 32,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28,49%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,01%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,66; 49,58</t>
+          <t>16,07; 24,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,26; 53,27</t>
+          <t>25,27; 36,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,62; 55,47</t>
+          <t>24,35; 33,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,82; 40,3</t>
+          <t>27,15; 40,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,58; 43,63</t>
+          <t>21,42; 31,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,5; 48,74</t>
+          <t>30,3; 40,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,24; 43,32</t>
+          <t>24,11; 32,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,14; 47,56</t>
+          <t>27,46; 38,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,2; 50,99</t>
+          <t>19,72; 26,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29,69; 37,26</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25,22; 31,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,44; 38,09</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>42,52%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34,75%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39,4%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44,33%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>39,43%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>24,56%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>27,87%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>38,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>24,33%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>39,59%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42,18%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47,45%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>40,98%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,68; 44,87</t>
+          <t>38,83; 50,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,26; 29,98</t>
+          <t>38,73; 52,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,01; 25,06</t>
+          <t>44,99; 55,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,43; 45,08</t>
+          <t>35,79; 49,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,08; 29,6</t>
+          <t>30,03; 39,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,79; 32,03</t>
+          <t>33,82; 44,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,44; 42,63</t>
+          <t>39,26; 49,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,64; 28,17</t>
+          <t>34,39; 45,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,21; 27,25</t>
+          <t>35,76; 43,68</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38,24; 46,63</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>43,71; 50,9</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37,04; 45,29</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>37,6%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,06%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26,01%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,34; 44,02</t>
+          <t>29,89; 40,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,47; 42,45</t>
+          <t>19,1; 30,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,37; 40,18</t>
+          <t>16,69; 24,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,07; 39,3</t>
+          <t>18,82; 30,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,12; 47,58</t>
+          <t>34,45; 44,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,35; 39,08</t>
+          <t>20,6; 30,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,45; 37,49</t>
+          <t>23,51; 31,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,07; 41,87</t>
+          <t>22,35; 31,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,28; 36,69</t>
+          <t>33,71; 41,34</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21,16; 28,71</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21,2; 27,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>22,24; 29,77</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51,23%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,15; 50,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,69; 58,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,16; 64,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,21; 49,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,82; 50,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,88; 56,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,1; 46,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,97; 52,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,17; 58,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>48,42%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>27,26%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34,19%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>36,12%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,0; 47,46</t>
+          <t>17,71; 39,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,7; 33,74</t>
+          <t>18,94; 40,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,65; 24,5</t>
+          <t>18,31; 39,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,69; 40,9</t>
+          <t>32,9; 67,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,43; 31,06</t>
+          <t>17,4; 34,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,69; 30,73</t>
+          <t>30,08; 49,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,83; 41,12</t>
+          <t>23,24; 38,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,21; 28,55</t>
+          <t>14,91; 34,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14,99; 25,44</t>
+          <t>20,59; 33,8</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>27,11; 41,91</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 35,82</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26,8; 49,58</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>56,17%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>46,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>38,1%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>43,22%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>51,61%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>34,53%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,24; 26,25</t>
+          <t>23,84; 47,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>26,13; 33,38</t>
+          <t>34,95; 62,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,8; 32,36</t>
+          <t>45,93; 65,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,23; 28,21</t>
+          <t>16,06; 44,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>34,22; 40,69</t>
+          <t>30,77; 49,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,84; 31,03</t>
+          <t>30,08; 49,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>21,62; 26,12</t>
+          <t>37,5; 55,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,39; 36,31</t>
+          <t>28,16; 49,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>26,8; 30,87</t>
+          <t>30,35; 45,94</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35,46; 51,87</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>44,78; 58,11</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 43,79</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>34,64%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>22,59%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>19,99%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>40,66; 48,89</t>
+          <t>23,18; 53,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>41,31; 49,88</t>
+          <t>15,28; 34,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45,24; 52,46</t>
+          <t>11,56; 25,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,92; 41,42</t>
+          <t>11,47; 34,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>36,58; 43,46</t>
+          <t>25,66; 43,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,94; 49,11</t>
+          <t>14,14; 30,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>38,81; 44,03</t>
+          <t>15,57; 31,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>40,21; 45,54</t>
+          <t>26,09; 49,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>45,22; 49,8</t>
+          <t>27,07; 44,56</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>17,03; 30,18</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 26,17</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>21,6; 38,06</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>28,67; 36,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,4; 28,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,25; 25,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>33,95; 40,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,6; 25,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,87; 27,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>32,18; 37,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>21,17; 25,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21,71; 25,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>34,0%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>24,44%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>37,26%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>33,8%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>32,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 26,08</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>26,62; 34,0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>25,76; 32,46</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>29,75; 39,32</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 27,48</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>34,1; 40,42</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 31,67</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>26,88; 33,88</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 25,61</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>31,39; 36,39</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>27,04; 31,31</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>29,31; 35,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>45,41%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>45,08%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>48,86%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>40,79%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>38,29%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>40,12%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>45,78%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>40,59%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>42,54%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>47,28%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 49,26</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 49,57</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>45,56; 52,62</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>36,09; 46,88</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>35,42; 41,56</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>37,02; 43,43</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>42,96; 48,89</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 43,91</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>39,43; 44,41</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>40,07; 45,34</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>45,03; 49,66</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>37,92; 44,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>32,17%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>34,78%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>23,65%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>28,59; 35,82</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>21,26; 28,64</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>19,54; 25,47</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 28,95</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>34,42; 40,3</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>20,03; 25,83</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 27,88</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 32,67</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>32,52; 37,26</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>21,18; 25,99</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 25,89</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>24,55; 29,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
